--- a/WinformsUI/Template/Template.xlsx
+++ b/WinformsUI/Template/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22816"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目\谭林艳\6月数据2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\JournalVoucherAudit-v1.09\JournalVoucherAudit\WinformsUI\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A42C8912-F007-4911-AF18-4F12FC90BD7F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCA9A58-4FA7-4F8E-92D2-5F2A3F1AE5FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5828" yWindow="2093" windowWidth="22501" windowHeight="8249"/>
+    <workbookView xWindow="1800" yWindow="3174" windowWidth="17280" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="直内" sheetId="3" r:id="rId1"/>
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
-  <si>
-    <t>银行存款余额调节表</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>金额单位：元</t>
   </si>
@@ -76,19 +73,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>会计主管</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>$[CurrentDate]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[CaiWuTitle]未达账项</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[GuoKuTitle]未达账项</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -151,15 +136,35 @@
     <t>$[FootText]</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>$[CaiWuTitle]</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>复核</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>会计主管</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[Title]调节表</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[GuoKuTitle]（国库支出）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -281,7 +286,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -317,6 +322,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -329,32 +343,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -362,16 +376,16 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -383,114 +397,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="184" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -510,13 +419,103 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12492,170 +12491,170 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F4" sqref="F4:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.3" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="37.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6484375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="37.59765625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="4" customWidth="1"/>
     <col min="5" max="5" width="10" style="3" customWidth="1"/>
     <col min="6" max="6" width="12" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.6875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.875" style="6" customWidth="1"/>
-    <col min="10" max="11" width="9.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.69921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.09765625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13.84765625" style="6" customWidth="1"/>
+    <col min="10" max="11" width="9.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:15" ht="20.100000000000001" x14ac:dyDescent="0.45">
+      <c r="A1" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A2" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A3" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A2" s="48" t="s">
+    <row r="4" spans="1:15" ht="18.3" x14ac:dyDescent="0.45">
+      <c r="A4" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A5" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="38"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="I5" s="42"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A3" s="25" t="s">
-        <v>1</v>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A6" s="34" t="s">
+        <v>3</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
     </row>
-    <row r="4" spans="1:15" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A4" s="49" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="25.8" x14ac:dyDescent="0.45">
+      <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="50" t="s">
+      <c r="B8" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A5" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="51" t="s">
+      <c r="C8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="52" t="s">
+      <c r="D8" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="32"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A6" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A8" s="53" t="s">
+      <c r="E8" s="14"/>
+      <c r="F8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="G8" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="H8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="I8" s="23" t="s">
         <v>24</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="58" t="s">
-        <v>28</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
@@ -12664,24 +12663,24 @@
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="40" t="s">
-        <v>12</v>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="27" t="s">
+        <v>11</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="59" t="s">
-        <v>29</v>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28" t="s">
+        <v>25</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="37" t="s">
-        <v>12</v>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30" t="s">
+        <v>11</v>
       </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="60" t="s">
-        <v>30</v>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32" t="s">
+        <v>26</v>
       </c>
-      <c r="I9" s="39"/>
+      <c r="I9" s="33"/>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
@@ -12689,24 +12688,24 @@
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="33" t="s">
-        <v>13</v>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="34" t="s">
+        <v>12</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="59" t="s">
-        <v>31</v>
+      <c r="B10" s="34"/>
+      <c r="C10" s="28" t="s">
+        <v>27</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="47" t="s">
-        <v>13</v>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="35" t="s">
+        <v>12</v>
       </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="59" t="s">
-        <v>32</v>
+      <c r="G10" s="34"/>
+      <c r="H10" s="28" t="s">
+        <v>28</v>
       </c>
-      <c r="I10" s="36"/>
+      <c r="I10" s="29"/>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
@@ -12714,22 +12713,24 @@
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="43" t="s">
-        <v>14</v>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="25" t="s">
+        <v>13</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="45" t="s">
-        <v>15</v>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26" t="s">
+        <v>31</v>
       </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="20"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -12740,9 +12741,9 @@
       <c r="H12" s="6"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="61" t="s">
-        <v>33</v>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="B13"/>
       <c r="C13"/>
@@ -12753,13 +12754,13 @@
       <c r="H13" s="6"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -12769,7 +12770,7 @@
       <c r="L15" s="17"/>
       <c r="N15" s="17"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -12779,333 +12780,333 @@
       <c r="M16" s="17"/>
       <c r="O16" s="17"/>
     </row>
-    <row r="17" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
       <c r="O17" s="17"/>
     </row>
-    <row r="18" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
       <c r="O18" s="17"/>
     </row>
-    <row r="19" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
       <c r="O19" s="17"/>
     </row>
-    <row r="20" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
       <c r="O20" s="17"/>
     </row>
-    <row r="21" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="22" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="23" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="24" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="25" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="26" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="27" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="29" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="30" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="22" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="23" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="25" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="26" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="27" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="28" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="29" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="30" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="32" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="49" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="50" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="51" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="52" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="53" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K53" s="17"/>
       <c r="L53" s="17"/>
       <c r="M53" s="17"/>
       <c r="O53" s="17"/>
     </row>
-    <row r="54" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K54" s="17"/>
       <c r="L54" s="17"/>
       <c r="M54" s="17"/>
       <c r="O54" s="17"/>
     </row>
-    <row r="55" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K55" s="17"/>
       <c r="L55" s="17"/>
       <c r="M55" s="17"/>
       <c r="O55" s="17"/>
     </row>
-    <row r="56" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K56" s="17"/>
       <c r="L56" s="17"/>
       <c r="M56" s="17"/>
       <c r="O56" s="17"/>
     </row>
-    <row r="57" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K57" s="17"/>
       <c r="L57" s="17"/>
       <c r="M57" s="17"/>
       <c r="O57" s="17"/>
     </row>
-    <row r="58" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K58" s="17"/>
       <c r="L58" s="17"/>
       <c r="M58" s="17"/>
       <c r="O58" s="17"/>
     </row>
-    <row r="59" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K59" s="17"/>
       <c r="L59" s="17"/>
       <c r="M59" s="17"/>
       <c r="O59" s="17"/>
     </row>
-    <row r="60" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K60" s="17"/>
       <c r="L60" s="17"/>
       <c r="M60" s="17"/>
       <c r="O60" s="17"/>
     </row>
-    <row r="61" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K61" s="17"/>
       <c r="L61" s="17"/>
       <c r="M61" s="17"/>
       <c r="O61" s="17"/>
     </row>
-    <row r="62" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K62" s="17"/>
       <c r="L62" s="17"/>
       <c r="M62" s="17"/>
       <c r="O62" s="17"/>
     </row>
-    <row r="63" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K63" s="17"/>
       <c r="L63" s="17"/>
       <c r="M63" s="17"/>
       <c r="O63" s="17"/>
     </row>
-    <row r="64" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K64" s="17"/>
       <c r="L64" s="17"/>
       <c r="M64" s="17"/>
       <c r="O64" s="17"/>
     </row>
-    <row r="65" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K65" s="17"/>
       <c r="L65" s="17"/>
       <c r="M65" s="17"/>
       <c r="O65" s="17"/>
     </row>
-    <row r="66" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K66" s="17"/>
       <c r="L66" s="17"/>
       <c r="M66" s="17"/>
       <c r="O66" s="17"/>
     </row>
-    <row r="67" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K67" s="17"/>
       <c r="L67" s="17"/>
       <c r="M67" s="17"/>
       <c r="O67" s="17"/>
     </row>
-    <row r="68" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K68" s="17"/>
       <c r="L68" s="17"/>
       <c r="M68" s="17"/>
       <c r="O68" s="17"/>
     </row>
-    <row r="69" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K69" s="17"/>
       <c r="L69" s="17"/>
       <c r="M69" s="17"/>
       <c r="O69" s="17"/>
     </row>
-    <row r="70" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K70" s="17"/>
       <c r="L70" s="17"/>
       <c r="M70" s="17"/>
       <c r="O70" s="17"/>
     </row>
-    <row r="71" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="72" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="73" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="74" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="75" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="76" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="77" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="78" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="79" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="80" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="113" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="114" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="115" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="116" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="117" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="118" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="119" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="120" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="121" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="122" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="123" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="124" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K124" s="17"/>
       <c r="L124" s="17"/>
       <c r="M124" s="17"/>
       <c r="O124" s="17"/>
     </row>
-    <row r="125" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K125" s="17"/>
       <c r="L125" s="17"/>
       <c r="M125" s="17"/>
       <c r="O125" s="17"/>
     </row>
-    <row r="126" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K126" s="17"/>
       <c r="L126" s="17"/>
       <c r="M126" s="17"/>
       <c r="O126" s="17"/>
     </row>
-    <row r="127" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K127" s="17"/>
       <c r="L127" s="17"/>
       <c r="M127" s="17"/>
       <c r="O127" s="17"/>
     </row>
-    <row r="128" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K128" s="17"/>
       <c r="L128" s="17"/>
       <c r="M128" s="17"/>
       <c r="O128" s="17"/>
     </row>
-    <row r="129" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K129" s="17"/>
       <c r="L129" s="17"/>
       <c r="M129" s="17"/>
       <c r="O129" s="17"/>
     </row>
-    <row r="130" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K130" s="17"/>
       <c r="L130" s="17"/>
       <c r="M130" s="17"/>
       <c r="O130" s="17"/>
     </row>
-    <row r="131" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K131" s="17"/>
       <c r="L131" s="17"/>
       <c r="M131" s="17"/>
       <c r="O131" s="17"/>
     </row>
-    <row r="132" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K132" s="17"/>
       <c r="L132" s="17"/>
       <c r="M132" s="17"/>
       <c r="O132" s="17"/>
     </row>
-    <row r="133" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K133" s="17"/>
       <c r="L133" s="17"/>
       <c r="M133" s="17"/>
       <c r="O133" s="17"/>
     </row>
-    <row r="134" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K134" s="17"/>
       <c r="L134" s="17"/>
       <c r="M134" s="17"/>
       <c r="O134" s="17"/>
     </row>
-    <row r="135" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K135" s="17"/>
       <c r="L135" s="17"/>
       <c r="M135" s="17"/>
       <c r="O135" s="17"/>
     </row>
-    <row r="136" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K136" s="17"/>
       <c r="L136" s="17"/>
       <c r="M136" s="17"/>
       <c r="O136" s="17"/>
     </row>
-    <row r="137" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K137" s="17"/>
       <c r="L137" s="17"/>
       <c r="M137" s="17"/>
       <c r="O137" s="17"/>
     </row>
-    <row r="138" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K138" s="17"/>
       <c r="L138" s="17"/>
       <c r="M138" s="17"/>
       <c r="O138" s="17"/>
     </row>
-    <row r="139" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K139" s="17"/>
       <c r="L139" s="17"/>
       <c r="M139" s="17"/>
       <c r="O139" s="17"/>
     </row>
-    <row r="140" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K140" s="17"/>
       <c r="L140" s="17"/>
       <c r="M140" s="17"/>
       <c r="O140" s="17"/>
     </row>
-    <row r="141" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K141" s="17"/>
       <c r="L141" s="17"/>
       <c r="M141" s="17"/>
       <c r="O141" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
@@ -13117,6 +13118,9 @@
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="F9:G9"/>
@@ -13125,8 +13129,6 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="H10:I10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/WinformsUI/Template/Template.xlsx
+++ b/WinformsUI/Template/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22816"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\JournalVoucherAudit-v1.09\JournalVoucherAudit\WinformsUI\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCA9A58-4FA7-4F8E-92D2-5F2A3F1AE5FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081A8A9A-BDD5-43CD-8D6C-5A249490D21B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="3174" windowWidth="17280" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="直内" sheetId="3" r:id="rId1"/>
@@ -422,66 +422,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -517,6 +457,66 @@
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -12495,7 +12495,7 @@
   <dimension ref="A1:O141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:I4"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.3" x14ac:dyDescent="0.45"/>
@@ -12504,102 +12504,102 @@
     <col min="2" max="2" width="10.6484375" style="2" customWidth="1"/>
     <col min="3" max="3" width="37.59765625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.19921875" style="3" customWidth="1"/>
     <col min="6" max="6" width="12" style="2" customWidth="1"/>
     <col min="7" max="7" width="10.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.09765625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="21.09765625" style="5" customWidth="1"/>
     <col min="9" max="9" width="13.84765625" style="6" customWidth="1"/>
     <col min="10" max="11" width="9.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.100000000000001" x14ac:dyDescent="0.45">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:15" ht="18.3" x14ac:dyDescent="0.45">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="55" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="39" t="s">
+      <c r="D5" s="39"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41" t="s">
+      <c r="G5" s="41"/>
+      <c r="H5" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="42"/>
+      <c r="I5" s="43"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44" t="s">
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
@@ -12664,23 +12664,23 @@
       <c r="O8" s="16"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="28" t="s">
+      <c r="B9" s="49"/>
+      <c r="C9" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="30" t="s">
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32" t="s">
+      <c r="G9" s="53"/>
+      <c r="H9" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="33"/>
+      <c r="I9" s="55"/>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
@@ -12689,23 +12689,23 @@
       <c r="O9" s="16"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="28" t="s">
+      <c r="B10" s="44"/>
+      <c r="C10" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="35" t="s">
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="28" t="s">
+      <c r="G10" s="44"/>
+      <c r="H10" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="29"/>
+      <c r="I10" s="51"/>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
@@ -12714,21 +12714,21 @@
       <c r="O10" s="16"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26" t="s">
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26" t="s">
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="15"/>
@@ -13107,17 +13107,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:I6"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
@@ -13129,6 +13118,17 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="H10:I10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:I4"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/WinformsUI/Template/Template.xlsx
+++ b/WinformsUI/Template/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\JournalVoucherAudit-v1.09\JournalVoucherAudit\WinformsUI\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081A8A9A-BDD5-43CD-8D6C-5A249490D21B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8555BFFF-3409-4DD4-9354-46217180D62C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>金额单位：元</t>
   </si>
@@ -130,10 +130,6 @@
   </si>
   <si>
     <t>$[GuoKuBalance]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[FootText]</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -422,6 +418,66 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -457,66 +513,6 @@
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -12514,92 +12510,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.100000000000001" x14ac:dyDescent="0.45">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A2" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A3" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.3" x14ac:dyDescent="0.45">
+      <c r="A4" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A2" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A3" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-    </row>
-    <row r="4" spans="1:15" ht="18.3" x14ac:dyDescent="0.45">
-      <c r="A4" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="40" t="s">
+      <c r="D5" s="38"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="42" t="s">
+      <c r="G5" s="40"/>
+      <c r="H5" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="43"/>
+      <c r="I5" s="42"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="46" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
@@ -12664,23 +12660,23 @@
       <c r="O8" s="16"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="50" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="52" t="s">
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="54" t="s">
+      <c r="G9" s="31"/>
+      <c r="H9" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="55"/>
+      <c r="I9" s="33"/>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
@@ -12689,23 +12685,23 @@
       <c r="O9" s="16"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="50" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="56" t="s">
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="44"/>
-      <c r="H10" s="50" t="s">
+      <c r="G10" s="34"/>
+      <c r="H10" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="51"/>
+      <c r="I10" s="29"/>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
@@ -12714,21 +12710,21 @@
       <c r="O10" s="16"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="15"/>
@@ -12742,9 +12738,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="24" t="s">
-        <v>29</v>
-      </c>
+      <c r="A13" s="24"/>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -13107,6 +13101,17 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:I6"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
@@ -13118,17 +13123,6 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="H10:I10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:I4"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/WinformsUI/Template/Template.xlsx
+++ b/WinformsUI/Template/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\JournalVoucherAudit-v1.09\JournalVoucherAudit\WinformsUI\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8555BFFF-3409-4DD4-9354-46217180D62C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6592D2F-52AF-4AE8-A6F3-8D20B589C884}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2064" windowWidth="18450" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="直内" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>金额单位：元</t>
   </si>
@@ -57,12 +57,6 @@
     <t>金额</t>
   </si>
   <si>
-    <t>国库入账月份</t>
-  </si>
-  <si>
-    <t>财务入账月份</t>
-  </si>
-  <si>
     <t>小计：</t>
   </si>
   <si>
@@ -70,87 +64,83 @@
   </si>
   <si>
     <t xml:space="preserve">       制表 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>$[CurrentDate]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>$[CaiWuTotal]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>$[GuoKuTotal]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>&lt;[Reconciliation]$[VoucherDate]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>$[VoucherNumber]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>$[Remark]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>$[CreditAmount]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>$[CreateDate]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>$[RemarkReason]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[Amount]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;[Reconciliation]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>$[CaiWuSubTotal]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>$[GuoKuSubTotal]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>$[CaiWuBalance]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>$[GuoKuBalance]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>$[CaiWuTitle]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>复核</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>会计主管</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>$[Title]调节表</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>$[GuoKuTitle]（国库支出）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[Amount]&gt;[Reconciliation]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -162,7 +152,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -172,6 +162,7 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -182,48 +173,48 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -332,14 +323,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -361,158 +352,125 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -537,13 +495,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -611,13 +569,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -685,13 +643,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -759,13 +717,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -833,13 +791,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -907,13 +865,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -981,13 +939,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -1055,13 +1013,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -1129,13 +1087,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -1203,13 +1161,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -1277,13 +1235,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -1351,13 +1309,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -1425,13 +1383,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -1499,13 +1457,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -1573,13 +1531,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -1647,13 +1605,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -1721,13 +1679,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -1795,13 +1753,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -1869,13 +1827,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -1943,13 +1901,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -2017,13 +1975,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -2091,13 +2049,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -2165,13 +2123,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -2239,13 +2197,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -2313,13 +2271,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -2387,13 +2345,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -2461,13 +2419,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -2535,13 +2493,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -2609,13 +2567,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -2683,13 +2641,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -2757,13 +2715,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -2831,13 +2789,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -2905,13 +2863,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -2979,13 +2937,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -3053,13 +3011,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -3127,13 +3085,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -3201,13 +3159,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -3275,13 +3233,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -3349,13 +3307,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -3423,13 +3381,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -3497,13 +3455,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -3571,13 +3529,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -3645,13 +3603,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -3719,13 +3677,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -3793,13 +3751,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -3867,13 +3825,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -3941,13 +3899,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -4015,13 +3973,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -4089,13 +4047,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -4163,13 +4121,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -4237,13 +4195,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -4311,13 +4269,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -4385,13 +4343,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -4459,13 +4417,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -4533,13 +4491,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -4607,13 +4565,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -4681,13 +4639,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -4755,13 +4713,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -4829,13 +4787,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -4903,13 +4861,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -4977,13 +4935,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -5051,13 +5009,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -5125,13 +5083,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -5199,13 +5157,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -5273,13 +5231,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -5347,13 +5305,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -5421,13 +5379,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -5495,13 +5453,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -5569,13 +5527,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -5643,13 +5601,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -5717,13 +5675,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -5791,13 +5749,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -5865,13 +5823,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -5939,13 +5897,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -6013,13 +5971,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -6087,13 +6045,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -6161,13 +6119,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -6235,13 +6193,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -6309,13 +6267,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -6383,13 +6341,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -6457,13 +6415,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -6531,13 +6489,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -6605,13 +6563,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -6679,13 +6637,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -6753,13 +6711,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -6827,13 +6785,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -6901,13 +6859,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -6975,13 +6933,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -7049,13 +7007,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -7123,13 +7081,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -7197,13 +7155,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -7271,13 +7229,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -7345,13 +7303,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -7419,13 +7377,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -7493,13 +7451,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -7567,13 +7525,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -7641,13 +7599,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -7715,13 +7673,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -7789,13 +7747,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -7863,13 +7821,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -7937,13 +7895,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -8011,13 +7969,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -8085,13 +8043,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -8159,13 +8117,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -8233,13 +8191,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -8307,13 +8265,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -8381,13 +8339,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -8455,13 +8413,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -8529,13 +8487,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -8603,13 +8561,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -8677,13 +8635,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -8751,13 +8709,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -8825,13 +8783,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -8899,13 +8857,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -8973,13 +8931,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -9047,13 +9005,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -9121,13 +9079,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -9195,13 +9153,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -9269,13 +9227,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -9343,13 +9301,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -9417,13 +9375,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -9491,13 +9449,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -9565,13 +9523,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -9639,13 +9597,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -9713,13 +9671,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -9787,13 +9745,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -9861,13 +9819,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -9935,13 +9893,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -10009,13 +9967,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -10083,13 +10041,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -10157,13 +10115,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -10231,13 +10189,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -10305,13 +10263,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -10379,13 +10337,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -10453,13 +10411,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -10527,13 +10485,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -10601,13 +10559,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -10675,13 +10633,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -10749,13 +10707,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -10823,13 +10781,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -10897,13 +10855,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -10971,13 +10929,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -11045,13 +11003,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -11119,13 +11077,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -11193,13 +11151,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -11267,13 +11225,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -11341,13 +11299,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -11415,13 +11373,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -11489,13 +11447,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -11563,13 +11521,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -11637,13 +11595,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -11711,13 +11669,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -11785,13 +11743,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -11859,13 +11817,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -11933,13 +11891,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -12007,13 +11965,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -12081,13 +12039,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -12155,13 +12113,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -12488,116 +12446,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O141"/>
+  <dimension ref="A1:M141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.3" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.6484375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="37.59765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.19921875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="21.09765625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.84765625" style="6" customWidth="1"/>
-    <col min="10" max="11" width="9.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="3" max="3" width="30.546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.546875" style="5" customWidth="1"/>
+    <col min="8" max="9" width="9.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.100000000000001" x14ac:dyDescent="0.45">
-      <c r="A1" s="45" t="s">
-        <v>32</v>
+    <row r="1" spans="1:13" ht="20.100000000000001" x14ac:dyDescent="0.45">
+      <c r="A1" s="44" t="s">
+        <v>28</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+    </row>
+    <row r="4" spans="1:13" ht="18.3" x14ac:dyDescent="0.45">
+      <c r="A4" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A5" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="35"/>
+      <c r="E5" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="35"/>
+      <c r="G5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A3" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-    </row>
-    <row r="4" spans="1:15" ht="18.3" x14ac:dyDescent="0.45">
-      <c r="A4" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A5" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="42"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A6" s="34" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -12610,206 +12554,186 @@
       <c r="D7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="25.8" x14ac:dyDescent="0.45">
+      <c r="A8" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>5</v>
+      <c r="B9" s="28"/>
+      <c r="C9" s="22" t="s">
+        <v>21</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>7</v>
+      <c r="D9" s="10"/>
+      <c r="E9" s="29" t="s">
+        <v>9</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>8</v>
+      <c r="F9" s="30"/>
+      <c r="G9" s="22" t="s">
+        <v>22</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="31" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="25.8" x14ac:dyDescent="0.45">
-      <c r="A8" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="22" t="s">
+      <c r="B10" s="31"/>
+      <c r="C10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="31"/>
+      <c r="G10" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="27" t="s">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="33"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="28" t="s">
+      <c r="E11" s="27"/>
+      <c r="F11" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
+      <c r="G11" s="27"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="24"/>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="18"/>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="2"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="N15" s="17"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="L15" s="16"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="O16" s="17"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="M16" s="16"/>
     </row>
-    <row r="17" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="O17" s="17"/>
+    <row r="17" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="M17" s="16"/>
     </row>
-    <row r="18" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="O18" s="17"/>
+    <row r="18" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="M18" s="16"/>
     </row>
-    <row r="19" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="O19" s="17"/>
+    <row r="19" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="M19" s="16"/>
     </row>
-    <row r="20" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="O20" s="17"/>
+    <row r="20" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="M20" s="16"/>
     </row>
-    <row r="21" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="22" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="23" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="24" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="25" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="26" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="27" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="28" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="29" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="30" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="31" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="32" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="21" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="22" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="23" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="25" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="26" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="27" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="28" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="29" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="30" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="32" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -12826,128 +12750,128 @@
     <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="49" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="50" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="51" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="52" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="53" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="O53" s="17"/>
+    <row r="49" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="50" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="51" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="52" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="53" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="M53" s="16"/>
     </row>
-    <row r="54" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="O54" s="17"/>
+    <row r="54" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="M54" s="16"/>
     </row>
-    <row r="55" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="O55" s="17"/>
+    <row r="55" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="M55" s="16"/>
     </row>
-    <row r="56" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="O56" s="17"/>
+    <row r="56" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="M56" s="16"/>
     </row>
-    <row r="57" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="O57" s="17"/>
+    <row r="57" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="M57" s="16"/>
     </row>
-    <row r="58" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="O58" s="17"/>
+    <row r="58" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="M58" s="16"/>
     </row>
-    <row r="59" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K59" s="17"/>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="O59" s="17"/>
+    <row r="59" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="M59" s="16"/>
     </row>
-    <row r="60" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K60" s="17"/>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="O60" s="17"/>
+    <row r="60" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="M60" s="16"/>
     </row>
-    <row r="61" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K61" s="17"/>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="O61" s="17"/>
+    <row r="61" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+      <c r="M61" s="16"/>
     </row>
-    <row r="62" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K62" s="17"/>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="O62" s="17"/>
+    <row r="62" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
+      <c r="M62" s="16"/>
     </row>
-    <row r="63" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K63" s="17"/>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="O63" s="17"/>
+    <row r="63" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+      <c r="M63" s="16"/>
     </row>
-    <row r="64" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K64" s="17"/>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="O64" s="17"/>
+    <row r="64" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
+      <c r="M64" s="16"/>
     </row>
-    <row r="65" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K65" s="17"/>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="O65" s="17"/>
+    <row r="65" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
+      <c r="M65" s="16"/>
     </row>
-    <row r="66" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K66" s="17"/>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="O66" s="17"/>
+    <row r="66" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+      <c r="M66" s="16"/>
     </row>
-    <row r="67" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K67" s="17"/>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="O67" s="17"/>
+    <row r="67" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
+      <c r="M67" s="16"/>
     </row>
-    <row r="68" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K68" s="17"/>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="O68" s="17"/>
+    <row r="68" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+      <c r="M68" s="16"/>
     </row>
-    <row r="69" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K69" s="17"/>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="O69" s="17"/>
+    <row r="69" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I69" s="16"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16"/>
+      <c r="M69" s="16"/>
     </row>
-    <row r="70" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K70" s="17"/>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="O70" s="17"/>
+    <row r="70" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I70" s="16"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="16"/>
+      <c r="M70" s="16"/>
     </row>
-    <row r="71" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="72" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="73" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="74" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="75" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="76" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="77" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="78" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="79" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="80" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="71" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="72" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="73" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="74" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="75" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="76" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="77" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="78" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="79" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="80" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -12980,151 +12904,146 @@
     <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="113" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="114" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="115" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="116" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="117" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="118" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="119" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="120" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="121" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="122" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="123" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="124" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K124" s="17"/>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="O124" s="17"/>
+    <row r="113" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="114" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="115" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="116" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="117" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="118" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="119" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="120" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="121" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="122" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="123" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="124" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I124" s="16"/>
+      <c r="J124" s="16"/>
+      <c r="K124" s="16"/>
+      <c r="M124" s="16"/>
     </row>
-    <row r="125" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K125" s="17"/>
-      <c r="L125" s="17"/>
-      <c r="M125" s="17"/>
-      <c r="O125" s="17"/>
+    <row r="125" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I125" s="16"/>
+      <c r="J125" s="16"/>
+      <c r="K125" s="16"/>
+      <c r="M125" s="16"/>
     </row>
-    <row r="126" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K126" s="17"/>
-      <c r="L126" s="17"/>
-      <c r="M126" s="17"/>
-      <c r="O126" s="17"/>
+    <row r="126" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I126" s="16"/>
+      <c r="J126" s="16"/>
+      <c r="K126" s="16"/>
+      <c r="M126" s="16"/>
     </row>
-    <row r="127" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K127" s="17"/>
-      <c r="L127" s="17"/>
-      <c r="M127" s="17"/>
-      <c r="O127" s="17"/>
+    <row r="127" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I127" s="16"/>
+      <c r="J127" s="16"/>
+      <c r="K127" s="16"/>
+      <c r="M127" s="16"/>
     </row>
-    <row r="128" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K128" s="17"/>
-      <c r="L128" s="17"/>
-      <c r="M128" s="17"/>
-      <c r="O128" s="17"/>
+    <row r="128" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I128" s="16"/>
+      <c r="J128" s="16"/>
+      <c r="K128" s="16"/>
+      <c r="M128" s="16"/>
     </row>
-    <row r="129" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K129" s="17"/>
-      <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
-      <c r="O129" s="17"/>
+    <row r="129" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I129" s="16"/>
+      <c r="J129" s="16"/>
+      <c r="K129" s="16"/>
+      <c r="M129" s="16"/>
     </row>
-    <row r="130" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K130" s="17"/>
-      <c r="L130" s="17"/>
-      <c r="M130" s="17"/>
-      <c r="O130" s="17"/>
+    <row r="130" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I130" s="16"/>
+      <c r="J130" s="16"/>
+      <c r="K130" s="16"/>
+      <c r="M130" s="16"/>
     </row>
-    <row r="131" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K131" s="17"/>
-      <c r="L131" s="17"/>
-      <c r="M131" s="17"/>
-      <c r="O131" s="17"/>
+    <row r="131" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I131" s="16"/>
+      <c r="J131" s="16"/>
+      <c r="K131" s="16"/>
+      <c r="M131" s="16"/>
     </row>
-    <row r="132" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K132" s="17"/>
-      <c r="L132" s="17"/>
-      <c r="M132" s="17"/>
-      <c r="O132" s="17"/>
+    <row r="132" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I132" s="16"/>
+      <c r="J132" s="16"/>
+      <c r="K132" s="16"/>
+      <c r="M132" s="16"/>
     </row>
-    <row r="133" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K133" s="17"/>
-      <c r="L133" s="17"/>
-      <c r="M133" s="17"/>
-      <c r="O133" s="17"/>
+    <row r="133" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I133" s="16"/>
+      <c r="J133" s="16"/>
+      <c r="K133" s="16"/>
+      <c r="M133" s="16"/>
     </row>
-    <row r="134" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K134" s="17"/>
-      <c r="L134" s="17"/>
-      <c r="M134" s="17"/>
-      <c r="O134" s="17"/>
+    <row r="134" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I134" s="16"/>
+      <c r="J134" s="16"/>
+      <c r="K134" s="16"/>
+      <c r="M134" s="16"/>
     </row>
-    <row r="135" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K135" s="17"/>
-      <c r="L135" s="17"/>
-      <c r="M135" s="17"/>
-      <c r="O135" s="17"/>
+    <row r="135" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I135" s="16"/>
+      <c r="J135" s="16"/>
+      <c r="K135" s="16"/>
+      <c r="M135" s="16"/>
     </row>
-    <row r="136" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K136" s="17"/>
-      <c r="L136" s="17"/>
-      <c r="M136" s="17"/>
-      <c r="O136" s="17"/>
+    <row r="136" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I136" s="16"/>
+      <c r="J136" s="16"/>
+      <c r="K136" s="16"/>
+      <c r="M136" s="16"/>
     </row>
-    <row r="137" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K137" s="17"/>
-      <c r="L137" s="17"/>
-      <c r="M137" s="17"/>
-      <c r="O137" s="17"/>
+    <row r="137" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I137" s="16"/>
+      <c r="J137" s="16"/>
+      <c r="K137" s="16"/>
+      <c r="M137" s="16"/>
     </row>
-    <row r="138" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K138" s="17"/>
-      <c r="L138" s="17"/>
-      <c r="M138" s="17"/>
-      <c r="O138" s="17"/>
+    <row r="138" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I138" s="16"/>
+      <c r="J138" s="16"/>
+      <c r="K138" s="16"/>
+      <c r="M138" s="16"/>
     </row>
-    <row r="139" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K139" s="17"/>
-      <c r="L139" s="17"/>
-      <c r="M139" s="17"/>
-      <c r="O139" s="17"/>
+    <row r="139" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I139" s="16"/>
+      <c r="J139" s="16"/>
+      <c r="K139" s="16"/>
+      <c r="M139" s="16"/>
     </row>
-    <row r="140" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K140" s="17"/>
-      <c r="L140" s="17"/>
-      <c r="M140" s="17"/>
-      <c r="O140" s="17"/>
+    <row r="140" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I140" s="16"/>
+      <c r="J140" s="16"/>
+      <c r="K140" s="16"/>
+      <c r="M140" s="16"/>
     </row>
-    <row r="141" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K141" s="17"/>
-      <c r="L141" s="17"/>
-      <c r="M141" s="17"/>
-      <c r="O141" s="17"/>
+    <row r="141" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I141" s="16"/>
+      <c r="J141" s="16"/>
+      <c r="K141" s="16"/>
+      <c r="M141" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:I4"/>
+  <mergeCells count="17">
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:G6"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="E9:F9"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="E10:F10"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/WinformsUI/Template/Template.xlsx
+++ b/WinformsUI/Template/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\JournalVoucherAudit-v1.09\JournalVoucherAudit\WinformsUI\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E42B386-B53F-48BD-8A2F-5CAD81F59854}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BCEB11D-BA8E-4398-A8C9-128A64FDD8FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="768" windowWidth="18450" windowHeight="10296"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552"/>
   </bookViews>
   <sheets>
     <sheet name="report" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>$[CurrentDate]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,30 +264,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>会计主管</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$[Amount]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&gt;[lemon]</t>
+  </si>
+  <si>
+    <t>国库入账月份</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务入账月份</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,6 +339,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -352,7 +355,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -413,34 +416,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -449,7 +434,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -471,50 +456,77 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -830,100 +842,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="2" width="12.546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.84765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.09765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.8984375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.100000000000001" x14ac:dyDescent="0.5">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:9" ht="20.100000000000001" x14ac:dyDescent="0.5">
+      <c r="A1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
-    <row r="2" spans="1:8" ht="18.3" x14ac:dyDescent="0.5">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:9" ht="18.3" x14ac:dyDescent="0.5">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
-    <row r="3" spans="1:8" ht="18.3" x14ac:dyDescent="0.5">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:9" ht="18.3" x14ac:dyDescent="0.5">
+      <c r="A3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
     </row>
-    <row r="4" spans="1:8" ht="18.3" x14ac:dyDescent="0.5">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:9" ht="18.3" x14ac:dyDescent="0.5">
+      <c r="A4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
     </row>
-    <row r="5" spans="1:8" ht="18.3" x14ac:dyDescent="0.5">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:9" ht="18.3" x14ac:dyDescent="0.5">
+      <c r="A5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="5" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="17"/>
+      <c r="F5" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="28"/>
+      <c r="H5" s="16" t="s">
         <v>3</v>
       </c>
+      <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:8" ht="18.3" x14ac:dyDescent="0.5">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:9" ht="18.3" x14ac:dyDescent="0.5">
+      <c r="A6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:8" ht="18.3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" ht="18.3" x14ac:dyDescent="0.5">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -936,77 +960,88 @@
       <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="I7" s="30" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="G8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="9" spans="1:8" ht="18.3" x14ac:dyDescent="0.5">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:9" ht="18.3" x14ac:dyDescent="0.5">
+      <c r="A9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="9" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="14"/>
+      <c r="H9" s="16" t="s">
         <v>10</v>
       </c>
+      <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:8" ht="18.3" x14ac:dyDescent="0.5">
-      <c r="A10" s="16" t="s">
+    <row r="10" spans="1:9" ht="18.3" x14ac:dyDescent="0.5">
+      <c r="A10" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7"/>
+      <c r="H10" s="16" t="s">
         <v>12</v>
       </c>
+      <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:8" ht="18.3" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" ht="18.3" x14ac:dyDescent="0.5">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3" t="s">
@@ -1015,24 +1050,31 @@
       <c r="D11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="2"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:G6"/>
+  <mergeCells count="18">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="H9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
